--- a/data/trans_orig/Q64D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.352545348517752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13.40799894313434</v>
+        <v>13.40799894313433</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>5.835481133287419</v>
@@ -693,7 +693,7 @@
         <v>8.178132692168347</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>16.01843163193621</v>
+        <v>16.0184316319362</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.30634314124657</v>
+        <v>7.394082087641983</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.280286065266152</v>
+        <v>4.960491332128333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.679236196568652</v>
+        <v>3.592578638410834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.481990985831876</v>
+        <v>7.271649307778508</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.693350654851247</v>
+        <v>3.717221442809248</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.024128844066147</v>
+        <v>6.163790884943301</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.153370981381262</v>
+        <v>6.236758133439766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.77789181346488</v>
+        <v>10.60501070518199</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.198302605998011</v>
+        <v>6.486883619472535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.43759567364132</v>
+        <v>6.324202277817272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5.617406537400375</v>
+        <v>5.94028442102534</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.19238628126168</v>
+        <v>10.72435908353341</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.34947390488999</v>
+        <v>14.83889462736835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.98377094774648</v>
+        <v>15.53429705660982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.95206420665637</v>
+        <v>11.53047124028608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.21769619358973</v>
+        <v>22.7240209114052</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.094313205811188</v>
+        <v>9.084517225503692</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.92229867459195</v>
+        <v>14.70794226258896</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.33281137235464</v>
+        <v>14.79511483024149</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.43753509509729</v>
+        <v>28.52086001737151</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.10363160177507</v>
+        <v>11.14973536288292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13.11439028992639</v>
+        <v>12.67625629023703</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.6168464898234</v>
+        <v>11.78916644548433</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>22.64393040995789</v>
+        <v>22.8303755411351</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.525462007751928</v>
+        <v>8.207176234626651</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.050732632780976</v>
+        <v>7.91521668795659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.856162818806734</v>
+        <v>7.876561241569607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.45569878638511</v>
+        <v>12.55445756066937</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.908643527086328</v>
+        <v>7.976034765176616</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.651327867724381</v>
+        <v>6.298145696056194</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.241373192632699</v>
+        <v>8.110896466082977</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>13.10235548430538</v>
+        <v>13.04998105449241</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.816943621679805</v>
+        <v>8.76757048334929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.951624477213281</v>
+        <v>8.005308621118861</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8.652963674397142</v>
+        <v>8.519127108679896</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.65558229999341</v>
+        <v>13.64994707010566</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.90117895601509</v>
+        <v>14.95111743852181</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.92173128580346</v>
+        <v>13.44392417675353</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.72236378880103</v>
+        <v>12.67875937601494</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.48043386913564</v>
+        <v>20.16061303524305</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>12.78674562174898</v>
+        <v>12.92917879497248</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>12.32791464791261</v>
+        <v>11.98114748002913</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>14.16494770801043</v>
+        <v>14.25853760410872</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>22.95801305655292</v>
+        <v>23.33075685777816</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>13.61603035877971</v>
+        <v>13.36875170111393</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11.96106776640483</v>
+        <v>12.018378256888</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.54746834130276</v>
+        <v>12.51232563512501</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>19.91992029751636</v>
+        <v>19.65837851642546</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.83667619214212</v>
+        <v>7.969364277679659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.58102932362091</v>
+        <v>5.450139851846623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.87359245534959</v>
+        <v>9.865595659943189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.40793641276549</v>
+        <v>16.01529868232193</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.246734334067306</v>
+        <v>6.367756999272144</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.092199450582163</v>
+        <v>6.22442732097561</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.504993417732917</v>
+        <v>7.379629575134642</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>13.72379032407626</v>
+        <v>13.67744736544281</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.622612916802897</v>
+        <v>7.782028131816461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.040318496802178</v>
+        <v>6.327755432078534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.367023487454748</v>
+        <v>9.510060154489533</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.73669169059825</v>
+        <v>15.79576424080341</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.28464331342759</v>
+        <v>12.22816824276985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.38726126865013</v>
+        <v>8.909781215106527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.40519242987093</v>
+        <v>16.88676319205885</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23.90825484815245</v>
+        <v>23.28948675859522</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.57955770120148</v>
+        <v>10.71390886291674</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.03782620538663</v>
+        <v>10.54087114973308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.01567813181849</v>
+        <v>13.281454387221</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.62221011838287</v>
+        <v>19.79936237864885</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.75846538870936</v>
+        <v>11.10361245242026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8.821898721396884</v>
+        <v>9.060725585198627</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.71568703630983</v>
+        <v>13.87614956909361</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>20.5775694403284</v>
+        <v>20.61115054539388</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.82867062830723</v>
+        <v>7.68394506135505</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.241460775651467</v>
+        <v>7.424332070765132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.848431895274125</v>
+        <v>6.695522650704343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.02174483687332</v>
+        <v>16.61092485996088</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.395809952617486</v>
+        <v>6.447138894763383</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.445038586837602</v>
+        <v>6.229210482149444</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.659968371872034</v>
+        <v>7.58266186867373</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>14.40772297840228</v>
+        <v>14.32900325577677</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.9090299382308</v>
+        <v>7.964790566238266</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.546112795371717</v>
+        <v>7.582402156707082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.574120431267492</v>
+        <v>7.649438069051075</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.54065782786715</v>
+        <v>16.41982678184415</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.63627123162348</v>
+        <v>13.92840674238619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.37239367051586</v>
+        <v>13.19316200251575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.82387249542473</v>
+        <v>12.29297684582254</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.98343853410368</v>
+        <v>23.81093200957126</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>12.8501013948008</v>
+        <v>13.06535471147284</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.8906085981059</v>
+        <v>12.59004607549782</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>13.52494649320329</v>
+        <v>13.36121413236873</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>19.5532504307093</v>
+        <v>19.3506196510819</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>12.4675396453506</v>
+        <v>12.4615660374242</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.75034619122171</v>
+        <v>11.73687120921844</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.91003827989227</v>
+        <v>11.81300965797731</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>21.0478077136556</v>
+        <v>20.77279731789145</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.588078139133155</v>
+        <v>4.584924454086298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.391737023160939</v>
+        <v>5.233955611613109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.341404915080583</v>
+        <v>5.301208825536558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.39503327350903</v>
+        <v>15.09104959618366</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.521436571663343</v>
+        <v>3.331450457712251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.350530294482006</v>
+        <v>3.21328119454996</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.274768460327392</v>
+        <v>6.633093742657551</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.41665654252074</v>
+        <v>12.90604342422564</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.829228751750908</v>
+        <v>4.870716435068668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.108483170944667</v>
+        <v>5.283534312665924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.637809828538033</v>
+        <v>6.519244067241609</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>15.08298878882934</v>
+        <v>15.4825557277261</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.827241181313884</v>
+        <v>9.77705107887412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.0245953450105</v>
+        <v>15.59903009106266</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.4954928063167</v>
+        <v>11.91742938941342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.31891090349558</v>
+        <v>23.80915958817602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.63260487229724</v>
+        <v>14.85637990151088</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.70145536419045</v>
+        <v>11.12456104945401</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>22.37319868462273</v>
+        <v>21.6040592731142</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>22.43575456048817</v>
+        <v>21.49081696918962</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.3266085468876</v>
+        <v>9.341454513297387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12.48241218228145</v>
+        <v>13.15802080582343</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13.26729919968265</v>
+        <v>14.18248873719445</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>21.22104734427522</v>
+        <v>21.66354086388045</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>10.02413635760789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18.46280067646454</v>
+        <v>18.46280067646455</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>8.592174409140638</v>
@@ -1361,7 +1361,7 @@
         <v>10.35706670702643</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>16.84994131419994</v>
+        <v>16.84994131419993</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>9.494764633712876</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.772071340641194</v>
+        <v>8.806802513868234</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.773153549678091</v>
+        <v>7.742572527849237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.682846301879605</v>
+        <v>8.793528421107371</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.56624554243832</v>
+        <v>16.62793247066035</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.420301953738024</v>
+        <v>7.400011574387769</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.148887551375473</v>
+        <v>7.298179072733382</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>8.980026864733443</v>
+        <v>8.894911488758323</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>15.1574926698637</v>
+        <v>15.26457745649989</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>8.558674126504659</v>
+        <v>8.593964758242686</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7.791034728117315</v>
+        <v>7.805324830228534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9.141017361941554</v>
+        <v>9.163266454368474</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.5048859860886</v>
+        <v>16.5458049781932</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.63925614828783</v>
+        <v>11.61667511259758</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.51788215341345</v>
+        <v>10.36562324500042</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.55308555737196</v>
+        <v>11.77505790133356</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.55373152906623</v>
+        <v>20.22937847485182</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>10.05444615010455</v>
+        <v>9.958067363933349</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>9.868716319399496</v>
+        <v>10.18312371736439</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>12.01270523099493</v>
+        <v>12.08507204335396</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.88737572690148</v>
+        <v>18.80180851088397</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>10.63534319580461</v>
+        <v>10.55205013455345</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9.754396571892306</v>
+        <v>9.690600953216078</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11.31308975245111</v>
+        <v>11.31228666118901</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>19.09614637217229</v>
+        <v>19.24326098474376</v>
       </c>
     </row>
     <row r="22">
